--- a/results/results_summary.xlsx
+++ b/results/results_summary.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mds\data-553-project\data-553-grpprj\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mds\data-553-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51EEFEB-F2EF-41CA-B606-51D36835453C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4AD244-E7BA-45E4-8C13-09597B035A3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata" sheetId="1" r:id="rId1"/>
-    <sheet name="summary" sheetId="2" r:id="rId2"/>
+    <sheet name="paper-style-summary" sheetId="2" r:id="rId2"/>
+    <sheet name="summary2" sheetId="3" r:id="rId3"/>
+    <sheet name="summary3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="49">
   <si>
     <t>cfg_id</t>
   </si>
@@ -156,14 +164,42 @@
   <si>
     <t>original_data Total</t>
   </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>paper_data</t>
+  </si>
+  <si>
+    <t>paper_data Total</t>
+  </si>
+  <si>
+    <t>VALUES</t>
+  </si>
+  <si>
+    <t>DIFF. IN VALUES COMPARED TO PAPER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -203,11 +239,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="115">
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -219,9 +261,6 @@
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -248,9 +287,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
@@ -261,9 +297,6 @@
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -290,9 +323,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
@@ -303,9 +333,6 @@
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -332,6 +359,21 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -353,6 +395,21 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -369,6 +426,93 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -451,72 +595,6 @@
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -531,7 +609,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alex" refreshedDate="43867.906942939815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="273" xr:uid="{AB5E4E4A-28EC-47FB-AB6D-B13CD6A369D3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alex" refreshedDate="43868.463315740744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="341" xr:uid="{AB5E4E4A-28EC-47FB-AB6D-B13CD6A369D3}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="rawdata"/>
   </cacheSource>
@@ -565,7 +643,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.12068965517241299" maxValue="1"/>
     </cacheField>
     <cacheField name="Mean_F1Score" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.202898550724637" maxValue="0.886075949367088"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.202898550724637" maxValue="0.92"/>
     </cacheField>
     <cacheField name="Mean_Time" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.62000000476837103" maxValue="21.888999938964801"/>
@@ -584,9 +662,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dataset" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="our_data"/>
         <s v="original_data"/>
+        <s v="paper_data"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -600,7 +679,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="273">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="341">
   <r>
     <x v="0"/>
     <n v="0.64285714285714202"/>
@@ -3050,20 +3129,632 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="10"/>
+    <n v="0.79"/>
+    <n v="0.65"/>
+    <n v="0.71"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.76"/>
+    <n v="0.54"/>
+    <n v="0.63"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.82"/>
+    <n v="0.59"/>
+    <n v="0.68"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.67"/>
+    <n v="0.85"/>
+    <n v="0.75"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.68"/>
+    <n v="0.98"/>
+    <n v="0.8"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.68"/>
+    <n v="0.97"/>
+    <n v="0.8"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.7"/>
+    <n v="0.99"/>
+    <n v="0.82"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.91"/>
+    <n v="0.62"/>
+    <n v="0.73"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.85"/>
+    <n v="0.9"/>
+    <n v="0.87"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.86"/>
+    <n v="0.85"/>
+    <n v="0.85"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.87"/>
+    <n v="0.91"/>
+    <n v="0.89"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.85"/>
+    <n v="0.89"/>
+    <n v="0.87"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.88"/>
+    <n v="0.74"/>
+    <n v="0.8"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.86"/>
+    <n v="0.65"/>
+    <n v="0.74"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.9"/>
+    <n v="0.67"/>
+    <n v="0.77"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.73"/>
+    <n v="0.91"/>
+    <n v="0.81"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.86"/>
+    <n v="0.69"/>
+    <n v="0.76"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.86"/>
+    <n v="0.65"/>
+    <n v="0.74"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.91"/>
+    <n v="0.67"/>
+    <n v="0.77"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.74"/>
+    <n v="0.91"/>
+    <n v="0.81"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.85"/>
+    <n v="0.71"/>
+    <n v="0.77"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.87"/>
+    <n v="0.67"/>
+    <n v="0.76"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.91"/>
+    <n v="0.67"/>
+    <n v="0.77"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.75"/>
+    <n v="0.9"/>
+    <n v="0.82"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.85"/>
+    <n v="0.91"/>
+    <n v="0.88"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.86"/>
+    <n v="0.83"/>
+    <n v="0.85"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.89"/>
+    <n v="0.94"/>
+    <n v="0.91"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.85"/>
+    <n v="0.9"/>
+    <n v="0.87"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.85"/>
+    <n v="0.73"/>
+    <n v="0.78"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.89"/>
+    <n v="0.64"/>
+    <n v="0.74"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.9"/>
+    <n v="0.67"/>
+    <n v="0.77"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.73"/>
+    <n v="0.89"/>
+    <n v="0.8"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.89"/>
+    <n v="0.72"/>
+    <n v="0.79"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.89"/>
+    <n v="0.6"/>
+    <n v="0.71"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.92"/>
+    <n v="0.73"/>
+    <n v="0.81"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.75"/>
+    <n v="0.93"/>
+    <n v="0.83"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.87"/>
+    <n v="0.71"/>
+    <n v="0.78"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.87"/>
+    <n v="0.6"/>
+    <n v="0.7"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.92"/>
+    <n v="0.69"/>
+    <n v="0.79"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.74"/>
+    <n v="0.9"/>
+    <n v="0.81"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.73"/>
+    <n v="0.98"/>
+    <n v="0.83"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.71"/>
+    <n v="0.96"/>
+    <n v="0.81"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.75"/>
+    <n v="0.99"/>
+    <n v="0.85"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.92"/>
+    <n v="0.69"/>
+    <n v="0.79"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.72"/>
+    <n v="0.97"/>
+    <n v="0.82"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.7"/>
+    <n v="0.94"/>
+    <n v="0.8"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.75"/>
+    <n v="0.98"/>
+    <n v="0.85"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.92"/>
+    <n v="0.72"/>
+    <n v="0.81"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.87"/>
+    <n v="0.88"/>
+    <n v="0.87"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.85"/>
+    <n v="0.83"/>
+    <n v="0.83"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.88"/>
+    <n v="0.94"/>
+    <n v="0.91"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.83"/>
+    <n v="0.87"/>
+    <n v="0.85"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.88"/>
+    <n v="0.88"/>
+    <n v="0.88"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.87"/>
+    <n v="0.84"/>
+    <n v="0.85"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.89"/>
+    <n v="0.94"/>
+    <n v="0.92"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.84"/>
+    <n v="0.9"/>
+    <n v="0.87"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.88"/>
+    <n v="0.89"/>
+    <n v="0.88"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.86"/>
+    <n v="0.84"/>
+    <n v="0.85"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.87"/>
+    <n v="0.93"/>
+    <n v="0.9"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.83"/>
+    <n v="0.89"/>
+    <n v="0.86"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.88"/>
+    <n v="0.71"/>
+    <n v="0.79"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.87"/>
+    <n v="0.64"/>
+    <n v="0.74"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.91"/>
+    <n v="0.72"/>
+    <n v="0.8"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.73"/>
+    <n v="0.9"/>
+    <n v="0.8"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.87"/>
+    <n v="0.71"/>
+    <n v="0.78"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.86"/>
+    <n v="0.68"/>
+    <n v="0.76"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.91"/>
+    <n v="0.73"/>
+    <n v="0.81"/>
+    <m/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.75"/>
+    <n v="0.9"/>
+    <n v="0.82"/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="17"/>
     <m/>
     <m/>
     <m/>
     <m/>
     <x v="8"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F35CC4BE-3AD7-440C-9966-995FD9DA2B3D}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:M42" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F35CC4BE-3AD7-440C-9966-995FD9DA2B3D}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:M61" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
       <items count="19">
@@ -3107,10 +3798,11 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3119,7 +3811,7 @@
     <field x="6"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="39">
+  <rowItems count="58">
     <i>
       <x/>
     </i>
@@ -3233,6 +3925,63 @@
     </i>
     <i t="default">
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -3290,7 +4039,7 @@
     <dataField name="Average of Mean_F1Score" fld="3" subtotal="average" baseField="0" baseItem="2" numFmtId="2"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="102">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="3">
@@ -3304,7 +4053,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="3">
@@ -3318,7 +4067,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="3">
@@ -3332,7 +4081,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="3">
@@ -3346,7 +4095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="110">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3355,7 +4104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="109">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3364,7 +4113,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="108">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3381,6 +4130,800 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{059AD4C4-FE83-476A-A26C-CFE582BB156A}" name="PivotTable2" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:M72" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="18">
+        <item x="1"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="17"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item h="1" x="8"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="68">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="5"/>
+    <field x="6"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Precision" fld="1" subtotal="average" baseField="6" baseItem="2" numFmtId="2"/>
+    <dataField name="Recall" fld="2" subtotal="average" baseField="6" baseItem="2" numFmtId="2"/>
+    <dataField name="F1" fld="3" subtotal="average" baseField="6" baseItem="2" numFmtId="2"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="101">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="100">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="99">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="98">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="97">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="96">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4A06F7C-C659-4A56-AD06-00A7606B2015}" name="PivotTable1" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:M72" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="18">
+        <item x="1"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="17"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item h="1" x="8"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="68">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="5"/>
+    <field x="6"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Precision" fld="1" subtotal="average" showDataAs="difference" baseField="6" baseItem="0" numFmtId="2"/>
+    <dataField name="Recall" fld="2" subtotal="average" showDataAs="difference" baseField="6" baseItem="0" numFmtId="2"/>
+    <dataField name="F1" fld="3" subtotal="average" showDataAs="difference" baseField="6" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -3649,13 +5192,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="F288" sqref="F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9934,6 +11480,1366 @@
       </c>
       <c r="G273" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>0.79</v>
+      </c>
+      <c r="C274">
+        <v>0.65</v>
+      </c>
+      <c r="D274">
+        <v>0.71</v>
+      </c>
+      <c r="F274" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <v>0.76</v>
+      </c>
+      <c r="C275">
+        <v>0.54</v>
+      </c>
+      <c r="D275">
+        <v>0.63</v>
+      </c>
+      <c r="F275" t="s">
+        <v>24</v>
+      </c>
+      <c r="G275" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>0.82</v>
+      </c>
+      <c r="C276">
+        <v>0.59</v>
+      </c>
+      <c r="D276">
+        <v>0.68</v>
+      </c>
+      <c r="F276" t="s">
+        <v>30</v>
+      </c>
+      <c r="G276" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>0.67</v>
+      </c>
+      <c r="C277">
+        <v>0.85</v>
+      </c>
+      <c r="D277">
+        <v>0.75</v>
+      </c>
+      <c r="F277" t="s">
+        <v>29</v>
+      </c>
+      <c r="G277" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278">
+        <v>0.68</v>
+      </c>
+      <c r="C278">
+        <v>0.98</v>
+      </c>
+      <c r="D278">
+        <v>0.8</v>
+      </c>
+      <c r="F278" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279">
+        <v>0.68</v>
+      </c>
+      <c r="C279">
+        <v>0.97</v>
+      </c>
+      <c r="D279">
+        <v>0.8</v>
+      </c>
+      <c r="F279" t="s">
+        <v>24</v>
+      </c>
+      <c r="G279" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280">
+        <v>0.7</v>
+      </c>
+      <c r="C280">
+        <v>0.99</v>
+      </c>
+      <c r="D280">
+        <v>0.82</v>
+      </c>
+      <c r="F280" t="s">
+        <v>30</v>
+      </c>
+      <c r="G280" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B281">
+        <v>0.91</v>
+      </c>
+      <c r="C281">
+        <v>0.62</v>
+      </c>
+      <c r="D281">
+        <v>0.73</v>
+      </c>
+      <c r="F281" t="s">
+        <v>29</v>
+      </c>
+      <c r="G281" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282">
+        <v>0.85</v>
+      </c>
+      <c r="C282">
+        <v>0.9</v>
+      </c>
+      <c r="D282">
+        <v>0.87</v>
+      </c>
+      <c r="F282" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283">
+        <v>0.86</v>
+      </c>
+      <c r="C283">
+        <v>0.85</v>
+      </c>
+      <c r="D283">
+        <v>0.85</v>
+      </c>
+      <c r="F283" t="s">
+        <v>24</v>
+      </c>
+      <c r="G283" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284">
+        <v>0.87</v>
+      </c>
+      <c r="C284">
+        <v>0.91</v>
+      </c>
+      <c r="D284">
+        <v>0.89</v>
+      </c>
+      <c r="F284" t="s">
+        <v>30</v>
+      </c>
+      <c r="G284" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285">
+        <v>0.85</v>
+      </c>
+      <c r="C285">
+        <v>0.89</v>
+      </c>
+      <c r="D285">
+        <v>0.87</v>
+      </c>
+      <c r="F285" t="s">
+        <v>29</v>
+      </c>
+      <c r="G285" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286">
+        <v>0.88</v>
+      </c>
+      <c r="C286">
+        <v>0.74</v>
+      </c>
+      <c r="D286">
+        <v>0.8</v>
+      </c>
+      <c r="F286" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B287">
+        <v>0.86</v>
+      </c>
+      <c r="C287">
+        <v>0.65</v>
+      </c>
+      <c r="D287">
+        <v>0.74</v>
+      </c>
+      <c r="F287" t="s">
+        <v>24</v>
+      </c>
+      <c r="G287" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B288">
+        <v>0.9</v>
+      </c>
+      <c r="C288">
+        <v>0.67</v>
+      </c>
+      <c r="D288">
+        <v>0.77</v>
+      </c>
+      <c r="F288" t="s">
+        <v>30</v>
+      </c>
+      <c r="G288" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B289">
+        <v>0.73</v>
+      </c>
+      <c r="C289">
+        <v>0.91</v>
+      </c>
+      <c r="D289">
+        <v>0.81</v>
+      </c>
+      <c r="F289" t="s">
+        <v>29</v>
+      </c>
+      <c r="G289" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B290">
+        <v>0.86</v>
+      </c>
+      <c r="C290">
+        <v>0.69</v>
+      </c>
+      <c r="D290">
+        <v>0.76</v>
+      </c>
+      <c r="F290" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B291">
+        <v>0.86</v>
+      </c>
+      <c r="C291">
+        <v>0.65</v>
+      </c>
+      <c r="D291">
+        <v>0.74</v>
+      </c>
+      <c r="F291" t="s">
+        <v>24</v>
+      </c>
+      <c r="G291" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B292">
+        <v>0.91</v>
+      </c>
+      <c r="C292">
+        <v>0.67</v>
+      </c>
+      <c r="D292">
+        <v>0.77</v>
+      </c>
+      <c r="F292" t="s">
+        <v>30</v>
+      </c>
+      <c r="G292" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293">
+        <v>0.74</v>
+      </c>
+      <c r="C293">
+        <v>0.91</v>
+      </c>
+      <c r="D293">
+        <v>0.81</v>
+      </c>
+      <c r="F293" t="s">
+        <v>29</v>
+      </c>
+      <c r="G293" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294">
+        <v>0.85</v>
+      </c>
+      <c r="C294">
+        <v>0.71</v>
+      </c>
+      <c r="D294">
+        <v>0.77</v>
+      </c>
+      <c r="F294" t="s">
+        <v>9</v>
+      </c>
+      <c r="G294" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295">
+        <v>0.87</v>
+      </c>
+      <c r="C295">
+        <v>0.67</v>
+      </c>
+      <c r="D295">
+        <v>0.76</v>
+      </c>
+      <c r="F295" t="s">
+        <v>24</v>
+      </c>
+      <c r="G295" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296">
+        <v>0.91</v>
+      </c>
+      <c r="C296">
+        <v>0.67</v>
+      </c>
+      <c r="D296">
+        <v>0.77</v>
+      </c>
+      <c r="F296" t="s">
+        <v>30</v>
+      </c>
+      <c r="G296" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297">
+        <v>0.75</v>
+      </c>
+      <c r="C297">
+        <v>0.9</v>
+      </c>
+      <c r="D297">
+        <v>0.82</v>
+      </c>
+      <c r="F297" t="s">
+        <v>29</v>
+      </c>
+      <c r="G297" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298">
+        <v>0.85</v>
+      </c>
+      <c r="C298">
+        <v>0.91</v>
+      </c>
+      <c r="D298">
+        <v>0.88</v>
+      </c>
+      <c r="F298" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299">
+        <v>0.86</v>
+      </c>
+      <c r="C299">
+        <v>0.83</v>
+      </c>
+      <c r="D299">
+        <v>0.85</v>
+      </c>
+      <c r="F299" t="s">
+        <v>24</v>
+      </c>
+      <c r="G299" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300">
+        <v>0.89</v>
+      </c>
+      <c r="C300">
+        <v>0.94</v>
+      </c>
+      <c r="D300">
+        <v>0.91</v>
+      </c>
+      <c r="F300" t="s">
+        <v>30</v>
+      </c>
+      <c r="G300" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B301">
+        <v>0.85</v>
+      </c>
+      <c r="C301">
+        <v>0.9</v>
+      </c>
+      <c r="D301">
+        <v>0.87</v>
+      </c>
+      <c r="F301" t="s">
+        <v>29</v>
+      </c>
+      <c r="G301" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B302">
+        <v>0.85</v>
+      </c>
+      <c r="C302">
+        <v>0.73</v>
+      </c>
+      <c r="D302">
+        <v>0.78</v>
+      </c>
+      <c r="F302" t="s">
+        <v>9</v>
+      </c>
+      <c r="G302" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B303">
+        <v>0.89</v>
+      </c>
+      <c r="C303">
+        <v>0.64</v>
+      </c>
+      <c r="D303">
+        <v>0.74</v>
+      </c>
+      <c r="F303" t="s">
+        <v>24</v>
+      </c>
+      <c r="G303" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B304">
+        <v>0.9</v>
+      </c>
+      <c r="C304">
+        <v>0.67</v>
+      </c>
+      <c r="D304">
+        <v>0.77</v>
+      </c>
+      <c r="F304" t="s">
+        <v>30</v>
+      </c>
+      <c r="G304" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B305">
+        <v>0.73</v>
+      </c>
+      <c r="C305">
+        <v>0.89</v>
+      </c>
+      <c r="D305">
+        <v>0.8</v>
+      </c>
+      <c r="F305" t="s">
+        <v>29</v>
+      </c>
+      <c r="G305" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306">
+        <v>0.89</v>
+      </c>
+      <c r="C306">
+        <v>0.72</v>
+      </c>
+      <c r="D306">
+        <v>0.79</v>
+      </c>
+      <c r="F306" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307">
+        <v>0.89</v>
+      </c>
+      <c r="C307">
+        <v>0.6</v>
+      </c>
+      <c r="D307">
+        <v>0.71</v>
+      </c>
+      <c r="F307" t="s">
+        <v>24</v>
+      </c>
+      <c r="G307" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308">
+        <v>0.92</v>
+      </c>
+      <c r="C308">
+        <v>0.73</v>
+      </c>
+      <c r="D308">
+        <v>0.81</v>
+      </c>
+      <c r="F308" t="s">
+        <v>30</v>
+      </c>
+      <c r="G308" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309">
+        <v>0.75</v>
+      </c>
+      <c r="C309">
+        <v>0.93</v>
+      </c>
+      <c r="D309">
+        <v>0.83</v>
+      </c>
+      <c r="F309" t="s">
+        <v>29</v>
+      </c>
+      <c r="G309" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B310">
+        <v>0.87</v>
+      </c>
+      <c r="C310">
+        <v>0.71</v>
+      </c>
+      <c r="D310">
+        <v>0.78</v>
+      </c>
+      <c r="F310" t="s">
+        <v>9</v>
+      </c>
+      <c r="G310" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B311">
+        <v>0.87</v>
+      </c>
+      <c r="C311">
+        <v>0.6</v>
+      </c>
+      <c r="D311">
+        <v>0.7</v>
+      </c>
+      <c r="F311" t="s">
+        <v>24</v>
+      </c>
+      <c r="G311" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B312">
+        <v>0.92</v>
+      </c>
+      <c r="C312">
+        <v>0.69</v>
+      </c>
+      <c r="D312">
+        <v>0.79</v>
+      </c>
+      <c r="F312" t="s">
+        <v>30</v>
+      </c>
+      <c r="G312" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B313">
+        <v>0.74</v>
+      </c>
+      <c r="C313">
+        <v>0.9</v>
+      </c>
+      <c r="D313">
+        <v>0.81</v>
+      </c>
+      <c r="F313" t="s">
+        <v>29</v>
+      </c>
+      <c r="G313" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B314">
+        <v>0.73</v>
+      </c>
+      <c r="C314">
+        <v>0.98</v>
+      </c>
+      <c r="D314">
+        <v>0.83</v>
+      </c>
+      <c r="F314" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B315">
+        <v>0.71</v>
+      </c>
+      <c r="C315">
+        <v>0.96</v>
+      </c>
+      <c r="D315">
+        <v>0.81</v>
+      </c>
+      <c r="F315" t="s">
+        <v>24</v>
+      </c>
+      <c r="G315" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B316">
+        <v>0.75</v>
+      </c>
+      <c r="C316">
+        <v>0.99</v>
+      </c>
+      <c r="D316">
+        <v>0.85</v>
+      </c>
+      <c r="F316" t="s">
+        <v>30</v>
+      </c>
+      <c r="G316" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B317">
+        <v>0.92</v>
+      </c>
+      <c r="C317">
+        <v>0.69</v>
+      </c>
+      <c r="D317">
+        <v>0.79</v>
+      </c>
+      <c r="F317" t="s">
+        <v>29</v>
+      </c>
+      <c r="G317" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318">
+        <v>0.72</v>
+      </c>
+      <c r="C318">
+        <v>0.97</v>
+      </c>
+      <c r="D318">
+        <v>0.82</v>
+      </c>
+      <c r="F318" t="s">
+        <v>9</v>
+      </c>
+      <c r="G318" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B319">
+        <v>0.7</v>
+      </c>
+      <c r="C319">
+        <v>0.94</v>
+      </c>
+      <c r="D319">
+        <v>0.8</v>
+      </c>
+      <c r="F319" t="s">
+        <v>24</v>
+      </c>
+      <c r="G319" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B320">
+        <v>0.75</v>
+      </c>
+      <c r="C320">
+        <v>0.98</v>
+      </c>
+      <c r="D320">
+        <v>0.85</v>
+      </c>
+      <c r="F320" t="s">
+        <v>30</v>
+      </c>
+      <c r="G320" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B321">
+        <v>0.92</v>
+      </c>
+      <c r="C321">
+        <v>0.72</v>
+      </c>
+      <c r="D321">
+        <v>0.81</v>
+      </c>
+      <c r="F321" t="s">
+        <v>29</v>
+      </c>
+      <c r="G321" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322">
+        <v>0.87</v>
+      </c>
+      <c r="C322">
+        <v>0.88</v>
+      </c>
+      <c r="D322">
+        <v>0.87</v>
+      </c>
+      <c r="F322" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323">
+        <v>0.85</v>
+      </c>
+      <c r="C323">
+        <v>0.83</v>
+      </c>
+      <c r="D323">
+        <v>0.83</v>
+      </c>
+      <c r="F323" t="s">
+        <v>24</v>
+      </c>
+      <c r="G323" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324">
+        <v>0.88</v>
+      </c>
+      <c r="C324">
+        <v>0.94</v>
+      </c>
+      <c r="D324">
+        <v>0.91</v>
+      </c>
+      <c r="F324" t="s">
+        <v>30</v>
+      </c>
+      <c r="G324" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325">
+        <v>0.83</v>
+      </c>
+      <c r="C325">
+        <v>0.87</v>
+      </c>
+      <c r="D325">
+        <v>0.85</v>
+      </c>
+      <c r="F325" t="s">
+        <v>29</v>
+      </c>
+      <c r="G325" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326">
+        <v>0.88</v>
+      </c>
+      <c r="C326">
+        <v>0.88</v>
+      </c>
+      <c r="D326">
+        <v>0.88</v>
+      </c>
+      <c r="F326" t="s">
+        <v>9</v>
+      </c>
+      <c r="G326" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B327">
+        <v>0.87</v>
+      </c>
+      <c r="C327">
+        <v>0.84</v>
+      </c>
+      <c r="D327">
+        <v>0.85</v>
+      </c>
+      <c r="F327" t="s">
+        <v>24</v>
+      </c>
+      <c r="G327" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328">
+        <v>0.89</v>
+      </c>
+      <c r="C328">
+        <v>0.94</v>
+      </c>
+      <c r="D328">
+        <v>0.92</v>
+      </c>
+      <c r="F328" t="s">
+        <v>30</v>
+      </c>
+      <c r="G328" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329">
+        <v>0.84</v>
+      </c>
+      <c r="C329">
+        <v>0.9</v>
+      </c>
+      <c r="D329">
+        <v>0.87</v>
+      </c>
+      <c r="F329" t="s">
+        <v>29</v>
+      </c>
+      <c r="G329" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B330">
+        <v>0.88</v>
+      </c>
+      <c r="C330">
+        <v>0.89</v>
+      </c>
+      <c r="D330">
+        <v>0.88</v>
+      </c>
+      <c r="F330" t="s">
+        <v>9</v>
+      </c>
+      <c r="G330" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B331">
+        <v>0.86</v>
+      </c>
+      <c r="C331">
+        <v>0.84</v>
+      </c>
+      <c r="D331">
+        <v>0.85</v>
+      </c>
+      <c r="F331" t="s">
+        <v>24</v>
+      </c>
+      <c r="G331" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332">
+        <v>0.87</v>
+      </c>
+      <c r="C332">
+        <v>0.93</v>
+      </c>
+      <c r="D332">
+        <v>0.9</v>
+      </c>
+      <c r="F332" t="s">
+        <v>30</v>
+      </c>
+      <c r="G332" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B333">
+        <v>0.83</v>
+      </c>
+      <c r="C333">
+        <v>0.89</v>
+      </c>
+      <c r="D333">
+        <v>0.86</v>
+      </c>
+      <c r="F333" t="s">
+        <v>29</v>
+      </c>
+      <c r="G333" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B334">
+        <v>0.88</v>
+      </c>
+      <c r="C334">
+        <v>0.71</v>
+      </c>
+      <c r="D334">
+        <v>0.79</v>
+      </c>
+      <c r="F334" t="s">
+        <v>9</v>
+      </c>
+      <c r="G334" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B335">
+        <v>0.87</v>
+      </c>
+      <c r="C335">
+        <v>0.64</v>
+      </c>
+      <c r="D335">
+        <v>0.74</v>
+      </c>
+      <c r="F335" t="s">
+        <v>24</v>
+      </c>
+      <c r="G335" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B336">
+        <v>0.91</v>
+      </c>
+      <c r="C336">
+        <v>0.72</v>
+      </c>
+      <c r="D336">
+        <v>0.8</v>
+      </c>
+      <c r="F336" t="s">
+        <v>30</v>
+      </c>
+      <c r="G336" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B337">
+        <v>0.73</v>
+      </c>
+      <c r="C337">
+        <v>0.9</v>
+      </c>
+      <c r="D337">
+        <v>0.8</v>
+      </c>
+      <c r="F337" t="s">
+        <v>29</v>
+      </c>
+      <c r="G337" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B338">
+        <v>0.87</v>
+      </c>
+      <c r="C338">
+        <v>0.71</v>
+      </c>
+      <c r="D338">
+        <v>0.78</v>
+      </c>
+      <c r="F338" t="s">
+        <v>9</v>
+      </c>
+      <c r="G338" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B339">
+        <v>0.86</v>
+      </c>
+      <c r="C339">
+        <v>0.68</v>
+      </c>
+      <c r="D339">
+        <v>0.76</v>
+      </c>
+      <c r="F339" t="s">
+        <v>24</v>
+      </c>
+      <c r="G339" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B340">
+        <v>0.91</v>
+      </c>
+      <c r="C340">
+        <v>0.73</v>
+      </c>
+      <c r="D340">
+        <v>0.81</v>
+      </c>
+      <c r="F340" t="s">
+        <v>30</v>
+      </c>
+      <c r="G340" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B341">
+        <v>0.75</v>
+      </c>
+      <c r="C341">
+        <v>0.9</v>
+      </c>
+      <c r="D341">
+        <v>0.82</v>
+      </c>
+      <c r="F341" t="s">
+        <v>29</v>
+      </c>
+      <c r="G341" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -9943,10 +12849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06563435-239C-428D-98A7-5C0AE7EB362E}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" activeCellId="1" sqref="D11 D30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11698,46 +14604,5400 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.83529411764705874</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.80941176470588239</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.81117647058823528</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.83058823529411752</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.74882352941176478</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.77411764705882347</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.79647058823529415</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.85705882352941187</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0.81764705882352962</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.86470588235294121</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.80941176470588239</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0.82470588235294118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="4">
-        <v>0.71303236119119551</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.5629096532670631</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.59457064191789455</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.70648254571255342</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.56247570251580958</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.59942209400733781</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0.6889694036956906</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0.76494156743396169</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0.70729070739242061</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0.83057851696719398</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0.69234939836875187</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0.72158375594903668</v>
+      <c r="B61" s="4">
+        <v>0.75378628000981673</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.64507702374666942</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.66677258480800816</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.74785110890640816</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.62459164481446128</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.65765394502449981</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.72480313187555856</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0.79564731946577805</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0.7440761578694568</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.84195430542910943</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0.73137018714779534</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0.75595779808367181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6D8763-9A12-4CA0-8D4F-9608F455B930}">
+  <dimension ref="A1:M72"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.56960435929213504</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.56043956043956</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.59575912614859405</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.52857142857142803</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.64041110080235697</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.56716417910447703</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.85038585940424105</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.76666666666666605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.98463441817347697</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.87931034482758597</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.96394879711687098</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.86046511627906896</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.99404988783370896</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.37454213719555801</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.35384615384615298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.72073575689571401</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.68456375838926098</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.73531608917600599</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.65486725663716805</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.77771929416591301</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.71698113207547098</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.51534997878960898</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.48421052631578898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.67801225558860401</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.59697703842626004</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.75200823202191003</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.81136913642268504</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.86767506963320895</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.89488845993476296</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.90290920333784397</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.128205128205128</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.52683927619854598</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.76042975068573904</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.25974025974025899</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.71491085969051604</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.59340659340659296</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.81960152520652896</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.22727272727272699</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.63684450644242097</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.62425149252546297</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.61194029850746201</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.58394686260287598</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.53968253968253899</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.70815821658732103</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.84812430733529298</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.92105263157894701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.95820104999609601</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.70689655172413701</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.96241405062848995</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.79069767441860395</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.98184583143313697</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.49682105597241399</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.53846153846153799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.75587331271563496</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.65599999999999903</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.72621435954251101</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.64150943396226401</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.82224240692274098</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.79518072289156605</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.62571363680129899</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.67961165048543604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.75281546113196196</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.74462189629889297</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.84426325015977799</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.671729476753679</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.58426966292134797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.67361939660702297</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.32758620689655099</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.53258253549868395</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.41860465116279</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.62928840531529695</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.74358974358974295</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.84564199722167399</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.71001158834698297</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.44186046511627902</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.61867162831610401</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.53731343283582</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.71933128397787505</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.81690140845070403</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.747706775524554</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.67532467532467499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.76130717080743704</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.68292682926829196</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.73920821329317798</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.793064187754697</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.75756426821141698</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.67142857142857104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.84034933208857199</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.7593325431986</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.51162790697674398</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.919673662521584</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.87179487179487103</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.78708033823793799</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.72307692307692295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.79833100895442499</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.56565656565656497</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.74856106108379405</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.556962025316455</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.85135889238959495</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.860759493670886</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.771194481939392</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.69629629629629597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.75912554326083503</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.75196109614286499</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.79392323574326795</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.75760022394307902</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.72307692307692295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.86188915678222799</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.53448275862068895</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.78072659409429501</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.51162790697674398</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.90516139791329997</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.89743589743589702</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.77319512787390898</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.72307692307692295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.80672430069253098</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.57407407407407396</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.76560908173197895</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.556962025316455</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.84526725428237404</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.886075949367088</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.76469312227481501</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.72307692307692295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.78571818338511401</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.74074074074074003</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.76918452078598598</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.80859697923233698</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.89655172413793005</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.72536463790763395</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.81742894379208497</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.34482758620689602</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.67926598807868499</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.32558139534883701</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.89541786868957296</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.82413069270325701</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.86153846153846103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.80027711114398103</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.72044587545799799</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.84956540191182095</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.77131623273429495</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.69565217391304301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.78348689928703197</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.76933295016219705</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.80318272477506902</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.75272437495244904</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.59340659340659296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.79326531713043202</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.18965517241379301</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.70110516354948105</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.34883720930232498</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.89192696373678604</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.81194863338423295</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.83076923076923004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.78777211709948503</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.29729729729729698</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.73090850963397203</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.84479075940979498</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.48148148148148101</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.78083016316439402</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.69230769230769196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.75821731104615298</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.64864864864864802</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.75807858375517301</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.80896514182262202</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0.86486486486486402</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0.76665646115181396</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0.70149253731343197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.838120286432398</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.41379310344827502</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.78059645347476103</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.51162790697674398</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.90991718921264397</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.82051282051282004</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0.79408524764600996</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.72307692307692295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.79538419178726705</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.50526315789473597</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.76870910280379301</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.556962025316455</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0.85617665653378905</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.84210526315789402</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0.77952802846321601</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.71212121212121204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.77684667613922198</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.75690510759279805</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0.83565176378744799</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.65579598685859497</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0.60227272727272696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.64455534862040098</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.41379310344827502</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.56079497929415001</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.39534883720930197</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.62297285006521996</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.83439971027229698</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.81538461538461504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.70327345507010197</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.52747252747252704</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.64319738789347003</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.50746268656716398</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.71273314607148097</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.73331078022748497</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.69281045751633996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.79670321134895405</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.72413793103448199</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.74938495532423699</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.83312123400143501</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.90322580645161199</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.68785850246802305</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.60674157303370702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.66681667380684795</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.36206896551724099</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.54513812779196202</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.41860465116279</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.627871193532752</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.839148402579455</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0.83076923076923004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.72537475418889596</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.629450852269135</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.71359975089196204</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.75508839678309003</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0.70129870129870098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.82197926807863098</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.68421052631578905</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.76767307992454203</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.85923118350968597</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0.68010053543091398</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0.55769230769230704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.67413509712989905</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.22413793103448201</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.51283773662304999</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.27906976744186002</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.59771986454616699</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0.86217838717838702</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0.89230769230769202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.73955000071555699</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.337662337662337</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.61015626747288898</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.41379310344827502</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.70351588883844296</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.760044346196314</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.68639053254437798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.81076468182941996</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.77253996945524706</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.87194693296554504</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0.693543131006645</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0.58947368421052604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.68311182837434803</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.15517241379310301</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.56224263218251902</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.27906976744186002</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.72246611412422101</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0.20512820512820501</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.85668288811359905</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.86153846153846103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.73937280855957699</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.64990663340311094</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.40677966101694901</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.78922920389756801</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0.32653061224489699</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.76621608587112899</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.85522892495691305</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.78384164969872006</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.87158031873278896</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.71438090108549201</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0.58947368421052604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.68558111934273203</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.12068965517241299</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.58103830324162797</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.27906976744186002</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.71491803039921398</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0.15384615384615299</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.87391595468189198</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0.86153846153846103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.76061369291241598</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.202898550724637</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.66561516892791495</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.40677966101694901</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.78492158550890201</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0.26086956521739102</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.78537769323578299</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.808448697983287</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.76970981168850205</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.81220709650211798</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0.68287772628505194</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0.59550561797752799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.682556007262762</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.29310344827586199</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.54576395458188098</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.44186046511627902</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.65976925140578402</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.86527716393065202</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0.81538461538461504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.73965382987699302</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.41975308641975301</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.63755399563980397</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.55072463768115898</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.72715602493590403</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0.76267858621140505</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0.68831168831168799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.79250615214056697</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.77201354626641905</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0.83440005061771505</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0.67836083942546499</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0.60714285714285698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.69006600802967799</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.58191764154667402</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.44186046511627902</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0.68418882167707595</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0.85071583651990301</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0.78461538461538405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.73699094467309501</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.39506172839506098</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.66181423677770601</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0.55072463768115898</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0.75131475107053602</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0.75342283791271902</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0.68456375838926098</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.81716559719389303</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.68421052631578905</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.82102333591551802</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0.84721363579836995</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0.86363636363636298</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.68558922384024201</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0.56190476190476102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.65623350270555403</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.22413793103448201</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.48190550609639099</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.25581395348837199</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0.57209070110095095</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0.487179487179487</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0.86833351996805896</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0.90769230769230702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.72672019840112301</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.337662337662337</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.60409079669245103</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.37931034482758602</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.68098494957161104</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0.62295081967213095</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0.76580779714346003</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0.69411764705882295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A33316-1B27-4319-890E-10973DFD67B3}">
+  <dimension ref="A1:M72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>-0.11956043956044005</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-0.11039564070786501</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>-0.15142857142857202</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-8.4240873851405995E-2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>-0.13283582089552293</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-5.9588899197642986E-2</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>-0.14333333333333398</v>
+      </c>
+      <c r="M6" s="4">
+        <v>-5.961414059575898E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>-0.10068965517241402</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.634418173476984E-3</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>-0.10953488372093101</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-6.0512028831289921E-3</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>-1.5641025641025985E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4.049887833708965E-3</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>-0.26615384615384702</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-0.24545786280444198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>-0.11543624161073907</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-7.9264243104286036E-2</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>-0.145132743362832</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-6.4683910823994051E-2</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>-0.10301886792452897</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-4.228070583408694E-2</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <v>-0.245789473684211</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-0.21465002121039101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>-0.19368421052631601</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-4.1987744411395966E-2</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>-0.13749999999999996</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-0.10302296157373991</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.008232021910028E-3</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <v>-0.17000000000000004</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-0.108630863577315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <v>-0.79758620689655202</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-0.10232493036679102</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>-0.3120930232558139</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-4.5111540065236988E-2</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>-0.85179487179487201</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-7.7090796662156014E-2</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-0.19316072380145399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>-0.5602597402597409</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-5.9570249314260915E-2</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>-0.20659340659340708</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-8.5089140309484002E-2</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>-0.62272727272727302</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-3.039847479347102E-2</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
+        <v>-0.14333333333333409</v>
+      </c>
+      <c r="M12" s="4">
+        <v>-0.17315549355757909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>-0.11805970149253797</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-0.10574850747453701</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>-0.17031746031746098</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-0.12605313739712398</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-4.1841783412678968E-2</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>1.052631578946972E-3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>-7.1875692664707058E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>-0.27310344827586297</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-2.1798950003903972E-2</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>-0.16930232558139602</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.4140506284899832E-3</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>-0.14384615384615396</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-8.1541685668630182E-3</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <v>-0.15153846153846195</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-0.19317894402758595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>-0.17400000000000093</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-7.4126687284365E-2</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>-0.16849056603773604</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-8.3785640457489041E-2</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>-5.4819277108433928E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-2.7757593077259002E-2</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <v>-0.110388349514564</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-0.16428636319870105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>-0.11142857142857199</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-3.7184538868038075E-2</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-1.5378103701107038E-2</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>8.6250000000000049E-2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2.4263250159778038E-2</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>-8.5730337078652075E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1.7294767536789601E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>-0.32241379310344903</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.3619396607022947E-2</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>-0.12139534883721004</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-7.4174645013160845E-3</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>0.15358974358974298</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3.9288405315296981E-2</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>-4.3580027783259867E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>-0.26813953488372094</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.1588346983004705E-5</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>-9.268656716418E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-1.1328371683895999E-2</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>0.13690140845070398</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3.9331283977874998E-2</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>-7.4675324675325006E-2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>-2.2932244754459985E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
+        <v>-0.16707317073170802</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-8.8692829192562939E-2</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>-0.24888888888888894</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-0.120791786706822</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-7.6935812245302992E-2</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>-0.17857142857142894</v>
+      </c>
+      <c r="M22" s="4">
+        <v>-9.2435731788582998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <v>-0.417241379310345</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-5.9650667911428035E-2</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>-0.33837209302325599</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-9.0667456801399982E-2</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <v>-3.8205128205129002E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>9.67366252158397E-3</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>-0.16692307692307706</v>
+      </c>
+      <c r="M23" s="4">
+        <v>-0.10291966176206202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <v>-0.30434343434343503</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-7.1668991045575003E-2</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>-0.29303797468354498</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-0.10143893891620592</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>-2.9240506329114013E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>-3.8641107610405068E-2</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>-0.17370370370370403</v>
+      </c>
+      <c r="M24" s="4">
+        <v>-9.8805518060608E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
+        <v>-0.26</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-0.12087445673916497</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <v>-0.25888888888888895</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-0.118038903857135</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-9.6076764256732061E-2</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
+        <v>-0.11692307692307702</v>
+      </c>
+      <c r="M26" s="4">
+        <v>-8.2399776056920948E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
+        <v>-0.34551724137931106</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-1.811084321777201E-2</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>-0.32837209302325598</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-5.9273405905704957E-2</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4">
+        <v>-4.2564102564102924E-2</v>
+      </c>
+      <c r="J27" s="4">
+        <v>-3.4838602086699977E-2</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
+        <v>-0.17692307692307707</v>
+      </c>
+      <c r="M27" s="4">
+        <v>-0.12680487212609104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
+        <v>-0.30592592592592605</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-7.3275699307469022E-2</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
+        <v>-0.29303797468354498</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-8.4390918268021031E-2</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
+        <v>-3.3924050632912039E-2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-7.4732745717626003E-2</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <v>-0.14692307692307705</v>
+      </c>
+      <c r="M28" s="4">
+        <v>-0.10530687772518499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4">
+        <v>-0.10925925925925994</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-6.4281816614885967E-2</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>-0.19333333333333402</v>
+      </c>
+      <c r="G30" s="4">
+        <v>-9.0815479214014005E-2</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
+        <v>6.5517241379300373E-3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>-8.1403020767663037E-2</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
+        <v>-0.26666666666666694</v>
+      </c>
+      <c r="M30" s="4">
+        <v>-0.12463536209236603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
+        <v>-0.56517241379310401</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-9.2571056207915059E-2</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>-0.50441860465116295</v>
+      </c>
+      <c r="G31" s="4">
+        <v>-0.15073401192131497</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4">
+        <v>-0.27333333333333398</v>
+      </c>
+      <c r="J31" s="4">
+        <v>-4.4582131310426987E-2</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
+        <v>-3.8461538461538991E-2</v>
+      </c>
+      <c r="M31" s="4">
+        <v>-7.5869307296743016E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4">
+        <v>-0.40941176470588303</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-7.972288885601897E-2</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>-0.41249999999999998</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-0.12955412454200199</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <v>-0.14529411764705902</v>
+      </c>
+      <c r="J32" s="4">
+        <v>-6.0434598088179081E-2</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
+        <v>-0.17434782608695698</v>
+      </c>
+      <c r="M32" s="4">
+        <v>-9.8683767265705047E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4">
+        <v>-0.1925</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-9.6513100712968036E-2</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <v>-0.14571428571428602</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-9.0667049837802938E-2</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <v>-3.3333333333339654E-3</v>
+      </c>
+      <c r="J34" s="4">
+        <v>-6.6817275224930972E-2</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <v>-0.236593406593407</v>
+      </c>
+      <c r="M34" s="4">
+        <v>-7.7275625047550922E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4">
+        <v>-0.70034482758620697</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-9.6734682869567989E-2</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
+        <v>-0.49116279069767499</v>
+      </c>
+      <c r="G35" s="4">
+        <v>-0.13889483645051892</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <v>-0.59666666666666712</v>
+      </c>
+      <c r="J35" s="4">
+        <v>-3.8073036263214011E-2</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
+        <v>-5.9230769230769975E-2</v>
+      </c>
+      <c r="M35" s="4">
+        <v>-7.8051366615767059E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4">
+        <v>-0.58270270270270297</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-9.2227882900514979E-2</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <v>-0.38124999999999998</v>
+      </c>
+      <c r="G36" s="4">
+        <v>-0.11909149036602795</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <v>-0.41851851851851901</v>
+      </c>
+      <c r="J36" s="4">
+        <v>-5.5209240590205044E-2</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <v>-0.16769230769230803</v>
+      </c>
+      <c r="M36" s="4">
+        <v>-7.9169836835605967E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4">
+        <v>-0.22135135135135198</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-0.11178268895384702</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <v>-0.23888888888888893</v>
+      </c>
+      <c r="G38" s="4">
+        <v>-9.192141624482697E-2</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4">
+        <v>-1.513513513513598E-2</v>
+      </c>
+      <c r="J38" s="4">
+        <v>-7.103485817737798E-2</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
+        <v>-0.12850746268656799</v>
+      </c>
+      <c r="M38" s="4">
+        <v>-6.3343538848185998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4">
+        <v>-0.46620689655172498</v>
+      </c>
+      <c r="D39" s="4">
+        <v>-4.1879713567602006E-2</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <v>-0.31837209302325598</v>
+      </c>
+      <c r="G39" s="4">
+        <v>-4.9403546525238928E-2</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <v>-0.11948717948717991</v>
+      </c>
+      <c r="J39" s="4">
+        <v>-3.0082810787355974E-2</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
+        <v>-0.14692307692307705</v>
+      </c>
+      <c r="M39" s="4">
+        <v>-7.5914752353990034E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4">
+        <v>-0.36473684210526403</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-7.4615808212732948E-2</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <v>-0.27303797468354496</v>
+      </c>
+      <c r="G40" s="4">
+        <v>-6.129089719620695E-2</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <v>-6.7894736842106007E-2</v>
+      </c>
+      <c r="J40" s="4">
+        <v>-5.3823343466210982E-2</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
+        <v>-0.13787878787878793</v>
+      </c>
+      <c r="M40" s="4">
+        <v>-7.0471971536783973E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4">
+        <v>-0.15272727272727304</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-0.10315332386077802</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
+        <v>-0.15166666666666695</v>
+      </c>
+      <c r="G42" s="4">
+        <v>-0.10309489240720193</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <v>-1.7647058823530015E-2</v>
+      </c>
+      <c r="J42" s="4">
+        <v>-6.4348236212552035E-2</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
+        <v>-0.12772727272727302</v>
+      </c>
+      <c r="M42" s="4">
+        <v>-7.4204013141405012E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4">
+        <v>-0.32620689655172497</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-9.544465137959901E-2</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <v>-0.25465116279069805</v>
+      </c>
+      <c r="G43" s="4">
+        <v>-8.9205020705850013E-2</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <v>9.9230769230769011E-2</v>
+      </c>
+      <c r="J43" s="4">
+        <v>-4.7027149934780077E-2</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4">
+        <v>-9.461538461538499E-2</v>
+      </c>
+      <c r="M43" s="4">
+        <v>-7.5600289727703052E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4">
+        <v>-0.272527472527473</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-9.6726544929898073E-2</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4">
+        <v>-0.23253731343283601</v>
+      </c>
+      <c r="G44" s="4">
+        <v>-9.6802612106529962E-2</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4">
+        <v>5.1917808219178019E-2</v>
+      </c>
+      <c r="J44" s="4">
+        <v>-5.7266853928519046E-2</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
+        <v>-0.11718954248366009</v>
+      </c>
+      <c r="M44" s="4">
+        <v>-7.6689219772515083E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4">
+        <v>-0.12586206896551799</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-5.3296788651045923E-2</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4">
+        <v>-0.17000000000000004</v>
+      </c>
+      <c r="G46" s="4">
+        <v>-0.14061504467576302</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4">
+        <v>3.2258064516119678E-3</v>
+      </c>
+      <c r="J46" s="4">
+        <v>-6.6878765998565015E-2</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
+        <v>-0.12325842696629297</v>
+      </c>
+      <c r="M46" s="4">
+        <v>-4.2141497531976935E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4">
+        <v>-0.36793103448275899</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-6.3183326193152034E-2</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4">
+        <v>-0.22139534883721002</v>
+      </c>
+      <c r="G47" s="4">
+        <v>-9.4861872208037989E-2</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4">
+        <v>4.7948717948717912E-2</v>
+      </c>
+      <c r="J47" s="4">
+        <v>-4.2128806467248037E-2</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
+        <v>-5.9230769230769975E-2</v>
+      </c>
+      <c r="M47" s="4">
+        <v>-5.0851597420545014E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4">
+        <v>-0.297241379310345</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-5.4625245811104062E-2</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4">
+        <v>-0.21058823529411796</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-0.11054914773086499</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J48" s="4">
+        <v>-5.6400249108037981E-2</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
+        <v>-9.8701298701299067E-2</v>
+      </c>
+      <c r="M48" s="4">
+        <v>-4.4911603216910012E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4">
+        <v>-0.16578947368421093</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-2.8020731921369002E-2</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4">
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="G50" s="4">
+        <v>-0.10232692007545796</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4">
+        <v>-3.5000000000000031E-2</v>
+      </c>
+      <c r="J50" s="4">
+        <v>-5.0768816490314062E-2</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
+        <v>-0.19230769230769296</v>
+      </c>
+      <c r="M50" s="4">
+        <v>-6.9899464569086023E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4">
+        <v>-0.48586206896551798</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-3.5864902870100912E-2</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4">
+        <v>-0.39093023255814002</v>
+      </c>
+      <c r="G51" s="4">
+        <v>-0.15716226337695005</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
+        <v>-0.13153846153846205</v>
+      </c>
+      <c r="J51" s="4">
+        <v>-7.228013545383305E-2</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4">
+        <v>-7.692307692307998E-3</v>
+      </c>
+      <c r="M51" s="4">
+        <v>-3.7821612821613004E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4">
+        <v>-0.43233766233766302</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-3.044999928444303E-2</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4">
+        <v>-0.34620689655172499</v>
+      </c>
+      <c r="G52" s="4">
+        <v>-0.14984373252711103</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4">
+        <v>-0.10333333333333405</v>
+      </c>
+      <c r="J52" s="4">
+        <v>-6.6484111161557058E-2</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
+        <v>-0.13360946745562197</v>
+      </c>
+      <c r="M52" s="4">
+        <v>-5.9955653803685949E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4">
+        <v>-0.23714285714285799</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-6.923531817058004E-2</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="G54" s="4">
+        <v>-9.746003054475294E-2</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4">
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="J54" s="4">
+        <v>-3.805306703445499E-2</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
+        <v>-0.14052631578947394</v>
+      </c>
+      <c r="M54" s="4">
+        <v>-3.6456868993354985E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4">
+        <v>-0.55482758620689698</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-2.6888171625651935E-2</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4">
+        <v>-0.36093023255814</v>
+      </c>
+      <c r="G55" s="4">
+        <v>-7.7757367817480993E-2</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
+        <v>-0.51487179487179491</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2.4661141242210416E-3</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4">
+        <v>-3.8461538461538991E-2</v>
+      </c>
+      <c r="M55" s="4">
+        <v>-4.3317111886400972E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4">
+        <v>-0.54</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-5.0627191440423047E-2</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4">
+        <v>-0.33322033898305098</v>
+      </c>
+      <c r="G56" s="4">
+        <v>-9.0093366596889046E-2</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4">
+        <v>-0.47346938775510305</v>
+      </c>
+      <c r="J56" s="4">
+        <v>-1.0770796102432034E-2</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="M56" s="4">
+        <v>-3.3783914128871051E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4">
+        <v>-0.23363636363636398</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-1.4771075043086945E-2</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4">
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="G58" s="4">
+        <v>-7.6158350301279931E-2</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4">
+        <v>-5.2857142857143047E-2</v>
+      </c>
+      <c r="J58" s="4">
+        <v>-3.841968126721107E-2</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4">
+        <v>-0.16052631578947396</v>
+      </c>
+      <c r="M58" s="4">
+        <v>-3.5619098914507985E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4">
+        <v>-0.58931034482758693</v>
+      </c>
+      <c r="D59" s="4">
+        <v>-2.4418880657267938E-2</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4">
+        <v>-0.40093023255814003</v>
+      </c>
+      <c r="G59" s="4">
+        <v>-9.8961696758372075E-2</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4">
+        <v>-0.57615384615384702</v>
+      </c>
+      <c r="J59" s="4">
+        <v>-1.5081969600786005E-2</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4">
+        <v>-3.8461538461538991E-2</v>
+      </c>
+      <c r="M59" s="4">
+        <v>-2.608404531810804E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4">
+        <v>-0.577101449275363</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-1.9386307087584043E-2</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4">
+        <v>-0.353220338983051</v>
+      </c>
+      <c r="G60" s="4">
+        <v>-9.4384831072085063E-2</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4">
+        <v>-0.54913043478260903</v>
+      </c>
+      <c r="J60" s="4">
+        <v>-2.5078414491098044E-2</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="M60" s="4">
+        <v>-3.4622306764216959E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4">
+        <v>-0.15086956521739203</v>
+      </c>
+      <c r="D62" s="4">
+        <v>-8.1551302016713012E-2</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4">
+        <v>-0.15923076923077006</v>
+      </c>
+      <c r="G62" s="4">
+        <v>-0.12029018831149796</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4">
+        <v>-3.1111111111112089E-2</v>
+      </c>
+      <c r="J62" s="4">
+        <v>-0.10779290349788206</v>
+      </c>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4">
+        <v>-0.15449438202247201</v>
+      </c>
+      <c r="M62" s="4">
+        <v>-6.7122273714948055E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4">
+        <v>-0.42689655172413798</v>
+      </c>
+      <c r="D63" s="4">
+        <v>-3.7443992737237974E-2</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4">
+        <v>-0.15813953488372096</v>
+      </c>
+      <c r="G63" s="4">
+        <v>-5.4236045418118994E-2</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4">
+        <v>-0.11461538461538501</v>
+      </c>
+      <c r="J63" s="4">
+        <v>-7.0230748594215964E-2</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4">
+        <v>-0.11461538461538501</v>
+      </c>
+      <c r="M63" s="4">
+        <v>-6.4722836069348033E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4">
+        <v>-0.37024691358024703</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-5.0346170123007017E-2</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4">
+        <v>-0.15927536231884099</v>
+      </c>
+      <c r="G64" s="4">
+        <v>-7.2446004360195992E-2</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4">
+        <v>-8.2727272727273093E-2</v>
+      </c>
+      <c r="J64" s="4">
+        <v>-8.284397506409602E-2</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4">
+        <v>-0.14168831168831197</v>
+      </c>
+      <c r="M64" s="4">
+        <v>-6.7321413788594908E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4">
+        <v>-0.17434782608695698</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-7.7493847859433029E-2</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4">
+        <v>-0.13923076923077005</v>
+      </c>
+      <c r="G66" s="4">
+        <v>-9.7986453733580947E-2</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4">
+        <v>-4.500000000000004E-2</v>
+      </c>
+      <c r="J66" s="4">
+        <v>-8.559994938228499E-2</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4">
+        <v>-0.13285714285714301</v>
+      </c>
+      <c r="M66" s="4">
+        <v>-6.1639160574535001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4">
+        <v>-0.43413793103448295</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-1.9933991970321974E-2</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4">
+        <v>-0.15813953488372096</v>
+      </c>
+      <c r="G67" s="4">
+        <v>-1.8082358453325953E-2</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4">
+        <v>-0.15153846153846195</v>
+      </c>
+      <c r="J67" s="4">
+        <v>-5.8111783229239933E-3</v>
+      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4">
+        <v>-0.11538461538461597</v>
+      </c>
+      <c r="M67" s="4">
+        <v>-4.928416348009701E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4">
+        <v>-0.38493827160493904</v>
+      </c>
+      <c r="D68" s="4">
+        <v>-4.3009055326905021E-2</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4">
+        <v>-0.14927536231884098</v>
+      </c>
+      <c r="G68" s="4">
+        <v>-3.8185763222293945E-2</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4">
+        <v>-0.12333333333333407</v>
+      </c>
+      <c r="J68" s="4">
+        <v>-3.8685248929464011E-2</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4">
+        <v>-0.12543624161073907</v>
+      </c>
+      <c r="M68" s="4">
+        <v>-5.657716208728103E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4">
+        <v>-0.17578947368421094</v>
+      </c>
+      <c r="D70" s="4">
+        <v>-4.2834402806106953E-2</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4">
+        <v>-0.12666666666666704</v>
+      </c>
+      <c r="G70" s="4">
+        <v>-3.8976664084481971E-2</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4">
+        <v>-4.6363636363637051E-2</v>
+      </c>
+      <c r="J70" s="4">
+        <v>-6.2786364201630085E-2</v>
+      </c>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4">
+        <v>-0.17809523809523897</v>
+      </c>
+      <c r="M70" s="4">
+        <v>-5.4410776159757979E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4">
+        <v>-0.46586206896551796</v>
+      </c>
+      <c r="D71" s="4">
+        <v>-3.3766497294445919E-2</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4">
+        <v>-0.39418604651162803</v>
+      </c>
+      <c r="G71" s="4">
+        <v>-0.16809449390360903</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4">
+        <v>-0.18282051282051304</v>
+      </c>
+      <c r="J71" s="4">
+        <v>-9.7909298899049091E-2</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4">
+        <v>-2.30769230769301E-3</v>
+      </c>
+      <c r="M71" s="4">
+        <v>-4.1666480031941067E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4">
+        <v>-0.42233766233766301</v>
+      </c>
+      <c r="D72" s="4">
+        <v>-3.3279801598877001E-2</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4">
+        <v>-0.36068965517241397</v>
+      </c>
+      <c r="G72" s="4">
+        <v>-0.13590920330754896</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4">
+        <v>-0.14704918032786907</v>
+      </c>
+      <c r="J72" s="4">
+        <v>-8.9015050428388975E-2</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4">
+        <v>-0.1158823529411771</v>
+      </c>
+      <c r="M72" s="4">
+        <v>-4.4192202856540019E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>